--- a/Report.xlsx
+++ b/Report.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\01-Workspaces\Workspace\Python\[01]-Thuc tap Bdata\[05]-Demo-Face-Recognition\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2933E552-38E2-41DF-A608-F2072992AD35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72FE3FA4-AAE8-4EE9-BF2D-40DC79D6C243}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2688" yWindow="2688" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,28 +25,46 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>STT</t>
   </si>
   <si>
-    <t>Nhan</t>
-  </si>
-  <si>
-    <t>Huan luyen</t>
-  </si>
-  <si>
-    <t>Kiem dinh</t>
-  </si>
-  <si>
-    <t>Que Ngoc  Hai</t>
+    <t>Nhãn</t>
+  </si>
+  <si>
+    <t>Đỗ Duy Mạnh</t>
+  </si>
+  <si>
+    <t>Hòa</t>
+  </si>
+  <si>
+    <t>Lâm vlog</t>
+  </si>
+  <si>
+    <t>Nguyễn Công Phượng</t>
+  </si>
+  <si>
+    <t>Nguyễn Hoàng Đức</t>
+  </si>
+  <si>
+    <t>Quang Hải</t>
+  </si>
+  <si>
+    <t>Quế Ngọc Hải</t>
+  </si>
+  <si>
+    <t>Huấn luyện (%)</t>
+  </si>
+  <si>
+    <t>Kiểm định (%)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -54,16 +72,41 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="13"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="0"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -71,15 +114,38 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -360,21 +426,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView tabSelected="1" zoomScale="152" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5" customWidth="1"/>
-    <col min="2" max="2" width="12.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.109375" customWidth="1"/>
-    <col min="4" max="4" width="11.44140625" customWidth="1"/>
+    <col min="1" max="1" width="5.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" ht="16.8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -382,27 +448,115 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="C2" s="4">
+        <v>98.12</v>
+      </c>
+      <c r="D2" s="4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="A3" s="2">
+        <v>2</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="C3" s="4">
+        <v>96.49</v>
+      </c>
+      <c r="D3" s="4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="A4" s="2">
+        <v>3</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C2">
-        <v>98.12</v>
-      </c>
-      <c r="D2">
-        <v>100</v>
-      </c>
+      <c r="C4" s="4">
+        <v>97.97</v>
+      </c>
+      <c r="D4" s="4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="A5" s="2">
+        <v>4</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="4">
+        <v>96.12</v>
+      </c>
+      <c r="D5" s="4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="A6" s="2">
+        <v>5</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="4">
+        <v>98.02</v>
+      </c>
+      <c r="D6" s="4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="A7" s="2">
+        <v>6</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="4">
+        <v>95.46</v>
+      </c>
+      <c r="D7" s="4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="A8" s="2">
+        <v>7</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="4">
+        <v>95.68</v>
+      </c>
+      <c r="D8" s="4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>